--- a/biology/Mycologie/Morillon_(champignon)/Morillon_(champignon).xlsx
+++ b/biology/Mycologie/Morillon_(champignon)/Morillon_(champignon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Morillon est issu de more, qui signifie « noir », forme vieillie de maure, avec suffixe -illon.
 </t>
@@ -545,7 +559,9 @@
           <t>Toponyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Morillon est un nom de lieu notamment porté  par :
 Morillon, commune française du département de la Haute-Savoie, station touristique d'hiver et d'été ;
@@ -579,7 +595,9 @@
           <t>Hydronyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Morillon est un nom de cours d’eau notamment porté par :
 la Font-Morillon, ruisseau des communes de Fontcouverte et Bussac-sur-Charente dans le département de la Charente Maritime.</t>
@@ -610,7 +628,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Maquis du Morillon, maquis du deuxième groupement du département des Vosges ;</t>
         </is>
@@ -640,9 +660,11 @@
           <t>Zoologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Plusieurs oiseaux se nomment morillon. Ce terme est utilisé pour nommer des canards au plumage noir. Dans ce cas, le terme dérive de maure[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Plusieurs oiseaux se nomment morillon. Ce terme est utilisé pour nommer des canards au plumage noir. Dans ce cas, le terme dérive de maure :
 Fuligule morillon ou morillon d'Europe — Aythya fuligula (Linnaeus, 1758) ;
 Morillon à bec cerclé — Aythya collaris (Donovan, 1809) ;
 Morillon glacial - Clangula hyemalis.</t>
@@ -673,10 +695,12 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Morillon, variété de raisin noir ou blanc-rose, cépage proche du pinot et entrant en particulier dans la composition du champagne. À l'origine les raisins de ce cépage étaient noirs, d'où son nom, dérivé de maure[1] ;
-Morillon, autre nom vernaculaire donné en français au bois-gentil (Daphne mezereum)[2].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Morillon, variété de raisin noir ou blanc-rose, cépage proche du pinot et entrant en particulier dans la composition du champagne. À l'origine les raisins de ce cépage étaient noirs, d'où son nom, dérivé de maure ;
+Morillon, autre nom vernaculaire donné en français au bois-gentil (Daphne mezereum).</t>
         </is>
       </c>
     </row>
@@ -704,13 +728,15 @@
           <t>Mycologie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Morillon, nom vernaculaire donné en français à différents champignons ressemblant aux morilles, mais pas forcément commestibles, même cuits, voire toxiques, selon les régions du monde :
-Europe[3] : la Morille à moitié libre (Morchella semilibera, syn. Mitrophora semilibera), champignon au pied beaucoup plus long et au chapeau très court ;
-En Amérique du nord[4], par analogie :
-l'espèce répandue au Nord-est, qu'on croyait être la même que celle trouvée en Europe, a été renommée Morchella punctipes (la Morille à pied ponctué)[5] ;
-au Canada, la Gyromitre fausse morille (Gyromitra esculenta)[4] (très toxique crue et hors des climats froids).</t>
+Europe : la Morille à moitié libre (Morchella semilibera, syn. Mitrophora semilibera), champignon au pied beaucoup plus long et au chapeau très court ;
+En Amérique du nord, par analogie :
+l'espèce répandue au Nord-est, qu'on croyait être la même que celle trouvée en Europe, a été renommée Morchella punctipes (la Morille à pied ponctué) ;
+au Canada, la Gyromitre fausse morille (Gyromitra esculenta) (très toxique crue et hors des climats froids).</t>
         </is>
       </c>
     </row>
@@ -738,7 +764,9 @@
           <t>Patronyme</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Morillon est un nom de famille  notamment porté par :
 Saint Morillon (ou Maurilio) (mort en 580), évêque de Cahors ;
@@ -748,7 +776,7 @@
 David Morillon (1972-), coureur de moto français, vice-champion du monde d'endurance 2005 ;
 Étienne Morillon (1884-1949), peintre français de l'école lyonnaise ;
 Gilles Morillon, musicien français batteur de rock ;
-Henri Morillon (1923-1947), militaire, lieutenant originaire de Château-Gontier mort pour la France en Indochine à Sadec. Chevalier de la légion d'honneur[6] ;
+Henri Morillon (1923-1947), militaire, lieutenant originaire de Château-Gontier mort pour la France en Indochine à Sadec. Chevalier de la légion d'honneur ;
 Jean Le Morillon (1920-2009), colonel français ;
 Lalligand-Morillon, révolutionnaire français ;
 Philippe Morillon (1935-), militaire et personnalité politique française ;
@@ -782,7 +810,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Morillon(s) et Morillonne(s), gentilé des habitants de la commune de Saint-Moré du département de l’Yonne ;
 Morillon, émeraude brute qui se vend au poids.</t>
